--- a/Dev/PythonDev/Work/Testing/UserEvaluation/Total.xlsx
+++ b/Dev/PythonDev/Work/Testing/UserEvaluation/Total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Workspace\AI\Thesis\FinalYearProject\FYPWAAR\Dev\PythonDev\Work\Testing\UserEvaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3E423C-73B2-440A-8FA5-08580D1171F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996E8EBD-365D-46B6-9201-EBDF687B6495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-2616" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>18-24</t>
   </si>
@@ -66,12 +66,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>CCBill</t>
-  </si>
-  <si>
-    <t>Non-CCBill</t>
-  </si>
-  <si>
     <t>Males</t>
   </si>
   <si>
@@ -91,6 +85,81 @@
   </si>
   <si>
     <t xml:space="preserve">Is the camera tracking system stable? (meaning the camera always manages to focus on the object it is recognising) </t>
+  </si>
+  <si>
+    <t>What is the reason behind the previous given rating with regards to the user-interface?</t>
+  </si>
+  <si>
+    <t>3D Map was confusing</t>
+  </si>
+  <si>
+    <t>Easy to use</t>
+  </si>
+  <si>
+    <t>user Friendly</t>
+  </si>
+  <si>
+    <t>Panning up and down was problematic</t>
+  </si>
+  <si>
+    <t>Very responsive</t>
+  </si>
+  <si>
+    <t>Difficult to read</t>
+  </si>
+  <si>
+    <t>Recommendation was confusing</t>
+  </si>
+  <si>
+    <t>Tablet screen was needed</t>
+  </si>
+  <si>
+    <t>Needed to be more informative</t>
+  </si>
+  <si>
+    <t>UI Theme was problematic</t>
+  </si>
+  <si>
+    <t>Nice and simple graphics</t>
+  </si>
+  <si>
+    <t>Info overload</t>
+  </si>
+  <si>
+    <t>What is the reason behind your previous rating with regards to the recommendation system?</t>
+  </si>
+  <si>
+    <t>Did not find it confusing</t>
+  </si>
+  <si>
+    <t>Found it confusing</t>
+  </si>
+  <si>
+    <t>Any improvements you might recommend? (Optional)</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>Holographic Arrows instead of a map</t>
+  </si>
+  <si>
+    <t>Explain why three rows for recommendation</t>
+  </si>
+  <si>
+    <t>Make it generic for other companies</t>
+  </si>
+  <si>
+    <t>Better Map</t>
+  </si>
+  <si>
+    <t>Tracking stability improvements</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Visitors</t>
   </si>
 </sst>
 </file>
@@ -172,11 +241,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -186,7 +255,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Age range</a:t>
+              <a:t>Participants</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -204,11 +273,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -223,44 +292,86 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -270,284 +381,78 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$4:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>18-24</c:v>
+                  <c:v>Employees</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25-34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35-44</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45-54</c:v>
+                  <c:v>Visitors</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$10</c:f>
+              <c:f>Sheet1!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4C14-4D3F-9C13-2B1D2022BB7E}"/>
+              <c16:uniqueId val="{00000000-ECFE-4CA4-9406-C1AE9BE4E8FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:overlap val="-90"/>
-        <c:axId val="1878625039"/>
-        <c:axId val="1265959263"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1878625039"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Age range</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1265959263"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1265959263"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>count</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1878625039"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -556,6 +461,42 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -568,14 +509,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -641,43 +598,43 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -685,60 +642,100 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -756,6 +753,13 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -771,6 +775,13 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -783,18 +794,18 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -804,17 +815,13 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -838,64 +845,65 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
     <cs:lnRef idx="0"/>
@@ -907,7 +915,7 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -933,35 +941,78 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
+  </cs:hiLoLine>
+  <cs:leaderLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -971,45 +1022,35 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:leaderLine>
   <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1017,7 +1058,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1030,17 +1071,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1058,9 +1099,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1072,12 +1113,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1093,7 +1134,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1102,12 +1142,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1122,7 +1162,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1135,20 +1175,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:noFill/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1168,23 +1202,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254181</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4057D6C-AC5E-43DC-8097-0E50DEDB6747}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0967930C-71FA-4182-B3E4-AD03B5EEF1EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,17 +1502,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1">
         <v>20</v>
@@ -1486,7 +1520,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1494,7 +1528,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -1502,7 +1536,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -1785,7 +1819,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1840,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1827,7 +1861,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1872,7 +1906,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1917,7 +1951,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,6 +1968,181 @@
       </c>
       <c r="B76">
         <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
